--- a/biology/Biochimie/NAD+-diphtamide_ADP-ribosyltransférase/NAD+-diphtamide_ADP-ribosyltransférase.xlsx
+++ b/biology/Biochimie/NAD+-diphtamide_ADP-ribosyltransférase/NAD+-diphtamide_ADP-ribosyltransférase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NAD%2B-diphtamide_ADP-ribosyltransf%C3%A9rase</t>
+          <t>NAD+-diphtamide_ADP-ribosyltransférase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La NAD+-diphtamide ADP-ribosyltransférase est une glycosyltransférase qui catalyse la réaction :
 NAD+ + diphtamide (en)-[eEF-2] (en)  
         ⇌
     {\displaystyle \rightleftharpoons }
   nicotinamide + N-(ADP-D-ribosyl)diphtamide (en)-[eEF-2] (en).
-Cette enzyme a pour effet d'inactiver le facteur d'élongation eucaryote 2 (en) par ADP-ribosylation[1]. Le récepteur est un résidu d'histidine modifié, appelé diphtamide (en), présent sur les facteurs d'élongation 2 d'eucaryotes et d'archées mais pas de bactéries ; il s'agit du résidu His715 chez les mammifères, His699 chez la levure, et His600 chez Pyrococcus horikoshii (en).
-La toxine diphtérique catalyse cette réaction, de même que quelques autres toxines bactériennes, telles que l'exotoxine A de Pseudomonas[2].
+Cette enzyme a pour effet d'inactiver le facteur d'élongation eucaryote 2 (en) par ADP-ribosylation. Le récepteur est un résidu d'histidine modifié, appelé diphtamide (en), présent sur les facteurs d'élongation 2 d'eucaryotes et d'archées mais pas de bactéries ; il s'agit du résidu His715 chez les mammifères, His699 chez la levure, et His600 chez Pyrococcus horikoshii (en).
+La toxine diphtérique catalyse cette réaction, de même que quelques autres toxines bactériennes, telles que l'exotoxine A de Pseudomonas.
 </t>
         </is>
       </c>
